--- a/data/OPGEE_OCI_30_fields.xlsx
+++ b/data/OPGEE_OCI_30_fields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12135" windowHeight="11790" tabRatio="922" firstSheet="14" activeTab="27"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12135" windowHeight="11790" tabRatio="922"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="12" r:id="rId1"/>
@@ -5773,6 +5773,8 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5881,8 +5883,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6301,9 +6301,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
@@ -6371,7 +6369,7 @@
   <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -6387,14 +6385,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>76</v>
       </c>
@@ -6407,8 +6405,8 @@
         <v>78</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -6417,10 +6415,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>1</v>
       </c>
@@ -6944,28 +6942,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="135" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -6981,90 +6979,90 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="128" t="s">
         <v>167</v>
       </c>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="126" t="s">
+      <c r="A49" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="126" t="s">
+      <c r="A50" s="128" t="s">
         <v>169</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="126"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="A51" s="128"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="A52" s="128"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="126"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="126"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="A54" s="128"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="126"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="A55" s="128"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="126"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="126"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -7102,7 +7100,7 @@
   <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -7118,14 +7116,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>76</v>
       </c>
@@ -7138,10 +7136,10 @@
         <v>236</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="133" t="s">
         <v>1113</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21" t="s">
         <v>1114</v>
@@ -7152,10 +7150,10 @@
         <v>238</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>726</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21" t="s">
         <v>1181</v>
@@ -7606,28 +7604,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="133" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="135" t="s">
         <v>1182</v>
       </c>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
+      <c r="D44" s="143"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="143"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="133" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="135" t="s">
         <v>1132</v>
       </c>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -7643,14 +7641,14 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="130" t="s">
+      <c r="A49" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130" t="s">
+      <c r="B49" s="132"/>
+      <c r="C49" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="130"/>
+      <c r="D49" s="132"/>
       <c r="E49" s="37" t="s">
         <v>76</v>
       </c>
@@ -8068,14 +8066,14 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="142" t="s">
+      <c r="A82" s="144" t="s">
         <v>1184</v>
       </c>
-      <c r="B82" s="142"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="142"/>
+      <c r="B82" s="144"/>
+      <c r="C82" s="144"/>
+      <c r="D82" s="144"/>
+      <c r="E82" s="144"/>
+      <c r="F82" s="144"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="17" t="s">
@@ -8127,14 +8125,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>76</v>
       </c>
@@ -8147,10 +8145,10 @@
         <v>236</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="133" t="s">
         <v>1113</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21" t="s">
         <v>1114</v>
@@ -8161,10 +8159,10 @@
         <v>238</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>726</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21" t="s">
         <v>1181</v>
@@ -8615,28 +8613,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="133" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="135" t="s">
         <v>1182</v>
       </c>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
+      <c r="D44" s="143"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="143"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="133" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="135" t="s">
         <v>1132</v>
       </c>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -8652,14 +8650,14 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="130" t="s">
+      <c r="A49" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130" t="s">
+      <c r="B49" s="132"/>
+      <c r="C49" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="130"/>
+      <c r="D49" s="132"/>
       <c r="E49" s="37" t="s">
         <v>76</v>
       </c>
@@ -9077,14 +9075,14 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="142" t="s">
+      <c r="A82" s="144" t="s">
         <v>1184</v>
       </c>
-      <c r="B82" s="142"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="142"/>
+      <c r="B82" s="144"/>
+      <c r="C82" s="144"/>
+      <c r="D82" s="144"/>
+      <c r="E82" s="144"/>
+      <c r="F82" s="144"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="17" t="s">
@@ -9136,14 +9134,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>1194</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>1195</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>1196</v>
       </c>
@@ -9156,10 +9154,10 @@
         <v>1198</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="133" t="s">
         <v>1199</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21" t="s">
         <v>1200</v>
@@ -9170,10 +9168,10 @@
         <v>1201</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>1202</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21" t="s">
         <v>1181</v>
@@ -9624,28 +9622,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>1234</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="133" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="135" t="s">
         <v>1182</v>
       </c>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
+      <c r="D44" s="143"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="143"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>1235</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="133" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="135" t="s">
         <v>1236</v>
       </c>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -9661,14 +9659,14 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="130" t="s">
+      <c r="A49" s="132" t="s">
         <v>1194</v>
       </c>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130" t="s">
+      <c r="B49" s="132"/>
+      <c r="C49" s="132" t="s">
         <v>1195</v>
       </c>
-      <c r="D49" s="130"/>
+      <c r="D49" s="132"/>
       <c r="E49" s="37" t="s">
         <v>1196</v>
       </c>
@@ -10084,14 +10082,14 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="142" t="s">
+      <c r="A82" s="144" t="s">
         <v>1184</v>
       </c>
-      <c r="B82" s="142"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="142"/>
+      <c r="B82" s="144"/>
+      <c r="C82" s="144"/>
+      <c r="D82" s="144"/>
+      <c r="E82" s="144"/>
+      <c r="F82" s="144"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="17" t="s">
@@ -10127,8 +10125,8 @@
   <sheetPr codeName="Sheet14" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15.75"/>
@@ -10143,14 +10141,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>76</v>
       </c>
@@ -10163,8 +10161,8 @@
         <v>78</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -10173,10 +10171,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20" t="s">
         <v>170</v>
       </c>
@@ -10747,28 +10745,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>196</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="140" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="142" t="s">
         <v>197</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>198</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -10784,104 +10782,104 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="129" t="s">
         <v>199</v>
       </c>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="142" t="s">
+      <c r="A49" s="144" t="s">
         <v>200</v>
       </c>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="126" t="s">
+      <c r="A51" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126" t="s">
+      <c r="A52" s="128" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="127" t="s">
+      <c r="A53" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="127"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="127" t="s">
+      <c r="A54" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="127"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="127" t="s">
+      <c r="A55" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="B55" s="127"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="127"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="127" t="s">
+      <c r="A56" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="B56" s="127"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="127" t="s">
+      <c r="A57" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="B57" s="127"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -10919,8 +10917,8 @@
   <sheetPr codeName="Sheet15" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15.75"/>
@@ -10935,14 +10933,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>352</v>
       </c>
@@ -10955,10 +10953,10 @@
         <v>266</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="133" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -10967,10 +10965,10 @@
         <v>354</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>1</v>
       </c>
@@ -11496,28 +11494,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>393</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="140" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="142" t="s">
         <v>394</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>395</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1244</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -11533,64 +11531,64 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="129" t="s">
         <v>397</v>
       </c>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="127" t="s">
+      <c r="A49" s="129" t="s">
         <v>398</v>
       </c>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="129" t="s">
         <v>399</v>
       </c>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="127" t="s">
+      <c r="A51" s="129" t="s">
         <v>400</v>
       </c>
-      <c r="B51" s="127"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="127" t="s">
+      <c r="A52" s="129" t="s">
         <v>401</v>
       </c>
-      <c r="B52" s="127"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="127" t="s">
+      <c r="A53" s="129" t="s">
         <v>402</v>
       </c>
-      <c r="B53" s="127"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -11640,14 +11638,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>352</v>
       </c>
@@ -11660,8 +11658,8 @@
         <v>266</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="53"/>
     </row>
@@ -11670,10 +11668,10 @@
         <v>321</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>403</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>5</v>
       </c>
@@ -12173,28 +12171,28 @@
       <c r="F43" s="55"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>393</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="140" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="142" t="s">
         <v>420</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>395</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1245</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -12210,62 +12208,62 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="143" t="s">
+      <c r="A48" s="145" t="s">
         <v>422</v>
       </c>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="143" t="s">
+      <c r="A49" s="145" t="s">
         <v>423</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="143" t="s">
+      <c r="A50" s="145" t="s">
         <v>424</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="143" t="s">
+      <c r="A51" s="145" t="s">
         <v>425</v>
       </c>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="143" t="s">
+      <c r="A52" s="145" t="s">
         <v>426</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="144"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -12315,14 +12313,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>427</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>428</v>
       </c>
@@ -12335,8 +12333,8 @@
         <v>266</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -12345,10 +12343,10 @@
         <v>429</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>430</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>1</v>
       </c>
@@ -12871,28 +12869,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>466</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="145" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="147" t="s">
         <v>467</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>468</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1246</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -12908,94 +12906,94 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="142" t="s">
+      <c r="A48" s="144" t="s">
         <v>470</v>
       </c>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="143" t="s">
+      <c r="A49" s="145" t="s">
         <v>471</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="129" t="s">
         <v>472</v>
       </c>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="127" t="s">
+      <c r="A51" s="129" t="s">
         <v>473</v>
       </c>
-      <c r="B51" s="127"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="127" t="s">
+      <c r="A52" s="129" t="s">
         <v>474</v>
       </c>
-      <c r="B52" s="127"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="127" t="s">
+      <c r="A53" s="129" t="s">
         <v>475</v>
       </c>
-      <c r="B53" s="127"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="127" t="s">
+      <c r="A54" s="129" t="s">
         <v>476</v>
       </c>
-      <c r="B54" s="127"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="127" t="s">
+      <c r="A55" s="129" t="s">
         <v>477</v>
       </c>
-      <c r="B55" s="127"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="127"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="142" t="s">
+      <c r="A56" s="144" t="s">
         <v>478</v>
       </c>
-      <c r="B56" s="127"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -13048,14 +13046,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>693</v>
       </c>
@@ -13068,8 +13066,8 @@
         <v>694</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -13078,10 +13076,10 @@
         <v>268</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>695</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>1</v>
       </c>
@@ -13598,28 +13596,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>311</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="140" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="142" t="s">
         <v>717</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>313</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1247</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -13635,56 +13633,56 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="129" t="s">
         <v>718</v>
       </c>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="127" t="s">
+      <c r="A49" s="129" t="s">
         <v>487</v>
       </c>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="127"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="A50" s="129"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="144"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
+      <c r="A51" s="146"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="146"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="144"/>
-      <c r="B52" s="144"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
+      <c r="A52" s="146"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="144"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -13734,14 +13732,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>489</v>
       </c>
@@ -13754,8 +13752,8 @@
         <v>490</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -13764,10 +13762,10 @@
         <v>491</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>1</v>
       </c>
@@ -14292,28 +14290,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>522</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="140" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="142" t="s">
         <v>523</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>524</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1248</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -14329,62 +14327,62 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="142" t="s">
+      <c r="A48" s="144" t="s">
         <v>525</v>
       </c>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="142" t="s">
+      <c r="A49" s="144" t="s">
         <v>526</v>
       </c>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="142" t="s">
+      <c r="A50" s="144" t="s">
         <v>527</v>
       </c>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="142" t="s">
+      <c r="A51" s="144" t="s">
         <v>528</v>
       </c>
-      <c r="B51" s="127"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="142" t="s">
+      <c r="A52" s="144" t="s">
         <v>529</v>
       </c>
-      <c r="B52" s="127"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="144"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -14670,7 +14668,7 @@
       <c r="B4" s="109"/>
       <c r="C4" s="109"/>
       <c r="D4" s="109"/>
-      <c r="I4" s="150"/>
+      <c r="I4" s="114"/>
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="109" t="s">
@@ -14679,7 +14677,7 @@
       <c r="B5" s="109"/>
       <c r="C5" s="109"/>
       <c r="D5" s="109"/>
-      <c r="I5" s="150"/>
+      <c r="I5" s="114"/>
       <c r="AK5" s="109" t="s">
         <v>1312</v>
       </c>
@@ -15104,7 +15102,7 @@
       <c r="AJ9" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AK9" s="149" t="s">
+      <c r="AK9" s="113" t="s">
         <v>1310</v>
       </c>
       <c r="AL9" s="109">
@@ -15431,7 +15429,7 @@
       <c r="B13" s="109"/>
       <c r="C13" s="109"/>
       <c r="D13" s="109"/>
-      <c r="I13" s="150"/>
+      <c r="I13" s="114"/>
       <c r="AO13" s="109"/>
     </row>
     <row r="14" spans="1:43">
@@ -15441,7 +15439,7 @@
       <c r="B14" s="109"/>
       <c r="C14" s="109"/>
       <c r="D14" s="109"/>
-      <c r="I14" s="150"/>
+      <c r="I14" s="114"/>
       <c r="AH14" s="109" t="s">
         <v>1141</v>
       </c>
@@ -16261,7 +16259,7 @@
       <c r="D23" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="150"/>
+      <c r="I23" s="114"/>
       <c r="J23" s="109">
         <v>50</v>
       </c>
@@ -16359,7 +16357,7 @@
       <c r="B25" s="109"/>
       <c r="C25" s="109"/>
       <c r="D25" s="109"/>
-      <c r="I25" s="150"/>
+      <c r="I25" s="114"/>
     </row>
     <row r="26" spans="1:41">
       <c r="A26" s="109" t="s">
@@ -16368,7 +16366,7 @@
       <c r="B26" s="109"/>
       <c r="C26" s="109"/>
       <c r="D26" s="109"/>
-      <c r="I26" s="150"/>
+      <c r="I26" s="114"/>
     </row>
     <row r="27" spans="1:41">
       <c r="A27" s="109"/>
@@ -16468,7 +16466,7 @@
       </c>
       <c r="C28" s="109"/>
       <c r="D28" s="109"/>
-      <c r="I28" s="150"/>
+      <c r="I28" s="114"/>
       <c r="AH28" s="109" t="s">
         <v>1156</v>
       </c>
@@ -16842,7 +16840,7 @@
       <c r="B36" s="109"/>
       <c r="C36" s="109"/>
       <c r="D36" s="109"/>
-      <c r="I36" s="150"/>
+      <c r="I36" s="114"/>
     </row>
     <row r="37" spans="1:41">
       <c r="A37" s="109" t="s">
@@ -16851,7 +16849,7 @@
       <c r="B37" s="109"/>
       <c r="C37" s="109"/>
       <c r="D37" s="109"/>
-      <c r="I37" s="150"/>
+      <c r="I37" s="114"/>
     </row>
     <row r="38" spans="1:41">
       <c r="A38" s="109" t="s">
@@ -16860,7 +16858,7 @@
       <c r="B38" s="109"/>
       <c r="C38" s="109"/>
       <c r="D38" s="109"/>
-      <c r="I38" s="150"/>
+      <c r="I38" s="114"/>
     </row>
     <row r="39" spans="1:41">
       <c r="A39" s="109"/>
@@ -17617,7 +17615,7 @@
       <c r="B49" s="109"/>
       <c r="C49" s="109"/>
       <c r="D49" s="109"/>
-      <c r="I49" s="150"/>
+      <c r="I49" s="114"/>
       <c r="AI49" s="109" t="s">
         <v>1152</v>
       </c>
@@ -17641,7 +17639,7 @@
       <c r="B50" s="109"/>
       <c r="C50" s="109"/>
       <c r="D50" s="109"/>
-      <c r="I50" s="150"/>
+      <c r="I50" s="114"/>
       <c r="AI50" s="109" t="s">
         <v>1153</v>
       </c>
@@ -17670,7 +17668,7 @@
       <c r="F51" s="109">
         <v>1</v>
       </c>
-      <c r="I51" s="150"/>
+      <c r="I51" s="114"/>
       <c r="AI51" s="109" t="s">
         <v>1154</v>
       </c>
@@ -17699,7 +17697,7 @@
       <c r="F52" s="109">
         <v>0</v>
       </c>
-      <c r="I52" s="150"/>
+      <c r="I52" s="114"/>
     </row>
     <row r="53" spans="1:41">
       <c r="A53" s="109"/>
@@ -17713,7 +17711,7 @@
       <c r="F53" s="109">
         <v>0</v>
       </c>
-      <c r="I53" s="150"/>
+      <c r="I53" s="114"/>
     </row>
     <row r="54" spans="1:41">
       <c r="A54" s="109"/>
@@ -17727,7 +17725,7 @@
       <c r="F54" s="109">
         <v>1</v>
       </c>
-      <c r="I54" s="150"/>
+      <c r="I54" s="114"/>
     </row>
     <row r="55" spans="1:41">
       <c r="A55" s="109"/>
@@ -17741,7 +17739,7 @@
       <c r="F55" s="109">
         <v>1</v>
       </c>
-      <c r="I55" s="150"/>
+      <c r="I55" s="114"/>
     </row>
     <row r="56" spans="1:41">
       <c r="A56" s="109"/>
@@ -17826,7 +17824,7 @@
       <c r="D57" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="I57" s="150"/>
+      <c r="I57" s="114"/>
       <c r="AH57" s="109" t="s">
         <v>1158</v>
       </c>
@@ -17849,14 +17847,14 @@
       <c r="D58" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="I58" s="150"/>
+      <c r="I58" s="114"/>
     </row>
     <row r="59" spans="1:41">
       <c r="A59" s="109"/>
       <c r="B59" s="109"/>
       <c r="C59" s="109"/>
       <c r="D59" s="109"/>
-      <c r="I59" s="150"/>
+      <c r="I59" s="114"/>
     </row>
     <row r="60" spans="1:41">
       <c r="A60" s="109" t="s">
@@ -17865,7 +17863,7 @@
       <c r="B60" s="109"/>
       <c r="C60" s="109"/>
       <c r="D60" s="109"/>
-      <c r="I60" s="150"/>
+      <c r="I60" s="114"/>
     </row>
     <row r="61" spans="1:41">
       <c r="A61" s="109"/>
@@ -17874,7 +17872,7 @@
       </c>
       <c r="C61" s="109"/>
       <c r="D61" s="109"/>
-      <c r="I61" s="150"/>
+      <c r="I61" s="114"/>
       <c r="AH61" s="109" t="s">
         <v>1159</v>
       </c>
@@ -18222,7 +18220,7 @@
       </c>
       <c r="C65" s="109"/>
       <c r="D65" s="109"/>
-      <c r="I65" s="150"/>
+      <c r="I65" s="114"/>
       <c r="AH65" s="109" t="s">
         <v>1160</v>
       </c>
@@ -18569,7 +18567,7 @@
       <c r="B69" s="109"/>
       <c r="C69" s="109"/>
       <c r="D69" s="109"/>
-      <c r="I69" s="150"/>
+      <c r="I69" s="114"/>
     </row>
     <row r="70" spans="1:41">
       <c r="A70" s="109" t="s">
@@ -18667,7 +18665,7 @@
       <c r="B71" s="109"/>
       <c r="C71" s="109"/>
       <c r="D71" s="109"/>
-      <c r="I71" s="150"/>
+      <c r="I71" s="114"/>
     </row>
     <row r="72" spans="1:41">
       <c r="A72" s="109" t="s">
@@ -18676,7 +18674,7 @@
       <c r="B72" s="109"/>
       <c r="C72" s="109"/>
       <c r="D72" s="109"/>
-      <c r="I72" s="150"/>
+      <c r="I72" s="114"/>
     </row>
     <row r="73" spans="1:41">
       <c r="A73" s="109"/>
@@ -18685,7 +18683,7 @@
       </c>
       <c r="C73" s="109"/>
       <c r="D73" s="109"/>
-      <c r="I73" s="150"/>
+      <c r="I73" s="114"/>
       <c r="AH73" s="109" t="s">
         <v>1161</v>
       </c>
@@ -19145,7 +19143,7 @@
       </c>
       <c r="C78" s="109"/>
       <c r="D78" s="109"/>
-      <c r="I78" s="150"/>
+      <c r="I78" s="114"/>
       <c r="AH78" s="109" t="s">
         <v>1162</v>
       </c>
@@ -19673,14 +19671,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>428</v>
       </c>
@@ -19693,8 +19691,8 @@
         <v>530</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -19703,10 +19701,10 @@
         <v>531</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>3</v>
       </c>
@@ -20233,28 +20231,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>559</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="135" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="137" t="s">
         <v>560</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>524</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1249</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -20270,76 +20268,76 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="128" t="s">
         <v>561</v>
       </c>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="126" t="s">
+      <c r="A49" s="128" t="s">
         <v>562</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="126" t="s">
+      <c r="A50" s="128" t="s">
         <v>563</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="126" t="s">
+      <c r="A51" s="128" t="s">
         <v>564</v>
       </c>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="A52" s="128"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="126"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="126"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="A54" s="128"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="126"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="A55" s="128"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -20392,14 +20390,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>565</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>566</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>567</v>
       </c>
@@ -20412,8 +20410,8 @@
         <v>569</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -20422,10 +20420,10 @@
         <v>268</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>570</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>2</v>
       </c>
@@ -20956,28 +20954,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>594</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="135" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="137" t="s">
         <v>595</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>596</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1250</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -20993,90 +20991,90 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="128" t="s">
         <v>598</v>
       </c>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="126" t="s">
+      <c r="A49" s="128" t="s">
         <v>599</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="126" t="s">
+      <c r="A50" s="128" t="s">
         <v>600</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="126"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="A51" s="128"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="A52" s="128"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="126"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="126"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="A54" s="128"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="126"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="A55" s="128"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="126"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="126"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -21130,14 +21128,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>719</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>720</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>721</v>
       </c>
@@ -21150,10 +21148,10 @@
         <v>723</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="133" t="s">
         <v>724</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -21162,10 +21160,10 @@
         <v>725</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>726</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>1</v>
       </c>
@@ -21707,28 +21705,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>769</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="140" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="142" t="s">
         <v>770</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>771</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>772</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -21744,62 +21742,62 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="129" t="s">
         <v>773</v>
       </c>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="127" t="s">
+      <c r="A49" s="129" t="s">
         <v>774</v>
       </c>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="129" t="s">
         <v>775</v>
       </c>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="144" t="s">
+      <c r="A51" s="146" t="s">
         <v>776</v>
       </c>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="146"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126" t="s">
+      <c r="A52" s="128" t="s">
         <v>777</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="144"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -21849,14 +21847,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>825</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>76</v>
       </c>
@@ -21869,8 +21867,8 @@
         <v>78</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -21879,10 +21877,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>2</v>
       </c>
@@ -22419,28 +22417,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="135" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="137" t="s">
         <v>850</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="135" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="137" t="s">
         <v>660</v>
       </c>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -22456,14 +22454,14 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A48" s="147" t="s">
+      <c r="A48" s="149" t="s">
         <v>852</v>
       </c>
-      <c r="B48" s="147"/>
-      <c r="C48" s="147"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="147"/>
+      <c r="B48" s="149"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="17" t="s">
@@ -22471,100 +22469,100 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="126" t="s">
+      <c r="A50" s="128" t="s">
         <v>661</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="126" t="s">
+      <c r="A51" s="128" t="s">
         <v>662</v>
       </c>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126" t="s">
+      <c r="A52" s="128" t="s">
         <v>663</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="126" t="s">
+      <c r="A53" s="128" t="s">
         <v>664</v>
       </c>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="126" t="s">
+      <c r="A54" s="128" t="s">
         <v>665</v>
       </c>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="126" t="s">
+      <c r="A55" s="128" t="s">
         <v>666</v>
       </c>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="126" t="s">
+      <c r="A56" s="128" t="s">
         <v>667</v>
       </c>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="126" t="s">
+      <c r="A57" s="128" t="s">
         <v>668</v>
       </c>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="126"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
+      <c r="A58" s="128"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="128"/>
+      <c r="F58" s="128"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="126"/>
-      <c r="B59" s="126"/>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
+      <c r="A59" s="128"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="128"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -22619,14 +22617,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>601</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>602</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>603</v>
       </c>
@@ -22639,8 +22637,8 @@
         <v>605</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -22649,10 +22647,10 @@
         <v>321</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>4</v>
       </c>
@@ -23207,28 +23205,28 @@
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>522</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="135" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="137" t="s">
         <v>642</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="127" t="s">
+      <c r="A46" s="129" t="s">
         <v>524</v>
       </c>
-      <c r="B46" s="127"/>
-      <c r="C46" s="140" t="s">
+      <c r="B46" s="129"/>
+      <c r="C46" s="142" t="s">
         <v>643</v>
       </c>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="137"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="139"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="25"/>
@@ -23244,98 +23242,98 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="126" t="s">
+      <c r="A49" s="128" t="s">
         <v>644</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="126" t="s">
+      <c r="A50" s="128" t="s">
         <v>645</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="126" t="s">
+      <c r="A51" s="128" t="s">
         <v>646</v>
       </c>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126" t="s">
+      <c r="A52" s="128" t="s">
         <v>647</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="126" t="s">
+      <c r="A53" s="128" t="s">
         <v>648</v>
       </c>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="126" t="s">
+      <c r="A54" s="128" t="s">
         <v>649</v>
       </c>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="126" t="s">
+      <c r="A55" s="128" t="s">
         <v>650</v>
       </c>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="126"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="126"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="126"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
+      <c r="A58" s="128"/>
+      <c r="B58" s="128"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="128"/>
+      <c r="F58" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -23375,7 +23373,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15.75"/>
@@ -23390,14 +23388,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>778</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>720</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>779</v>
       </c>
@@ -23410,8 +23408,8 @@
         <v>723</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -23420,10 +23418,10 @@
         <v>725</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>726</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>3</v>
       </c>
@@ -23952,28 +23950,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>815</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="140" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="142" t="s">
         <v>816</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>771</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1251</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -23989,84 +23987,84 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="129" t="s">
         <v>817</v>
       </c>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="127" t="s">
+      <c r="A49" s="129" t="s">
         <v>818</v>
       </c>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="129" t="s">
         <v>819</v>
       </c>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="126" t="s">
+      <c r="A51" s="128" t="s">
         <v>820</v>
       </c>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126" t="s">
+      <c r="A52" s="128" t="s">
         <v>821</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="126" t="s">
+      <c r="A53" s="128" t="s">
         <v>822</v>
       </c>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="126" t="s">
+      <c r="A54" s="128" t="s">
         <v>823</v>
       </c>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="126" t="s">
+      <c r="A55" s="128" t="s">
         <v>824</v>
       </c>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -24118,14 +24116,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="105" t="s">
         <v>428</v>
       </c>
@@ -24138,8 +24136,8 @@
         <v>669</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -24148,10 +24146,10 @@
         <v>321</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>670</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>1</v>
       </c>
@@ -24687,28 +24685,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>689</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="135" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="137" t="s">
         <v>690</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>691</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1252</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -24724,88 +24722,88 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="128" t="s">
         <v>1288</v>
       </c>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="126" t="s">
+      <c r="A49" s="128" t="s">
         <v>1291</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="126"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="A50" s="128"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="126"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="A51" s="128"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="A52" s="128"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="126"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="126"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="A54" s="128"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="126"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="A55" s="128"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="126"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="126"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -24859,14 +24857,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>76</v>
       </c>
@@ -24879,8 +24877,8 @@
         <v>78</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -24889,10 +24887,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21" t="s">
         <v>209</v>
@@ -25411,28 +25409,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>196</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="140" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="142" t="s">
         <v>223</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="135" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="137" t="s">
         <v>224</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -25448,84 +25446,84 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="143" t="s">
+      <c r="A48" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="143" t="s">
+      <c r="A49" s="145" t="s">
         <v>226</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="143" t="s">
+      <c r="A50" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="143" t="s">
+      <c r="A51" s="145" t="s">
         <v>228</v>
       </c>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="143" t="s">
+      <c r="A52" s="145" t="s">
         <v>229</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="143" t="s">
+      <c r="A53" s="145" t="s">
         <v>1253</v>
       </c>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="143" t="s">
+      <c r="A54" s="145" t="s">
         <v>230</v>
       </c>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="143" t="s">
+      <c r="A55" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -25561,7 +25559,7 @@
   <sheetPr codeName="Sheet28" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -25577,14 +25575,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>264</v>
       </c>
@@ -25597,10 +25595,10 @@
         <v>266</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="133" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -25609,10 +25607,10 @@
         <v>268</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21" t="s">
         <v>270</v>
@@ -26133,28 +26131,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>311</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="140" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="142" t="s">
         <v>312</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>313</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1254</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -26170,58 +26168,58 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="127" t="s">
+      <c r="A49" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="129" t="s">
         <v>316</v>
       </c>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="144"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
+      <c r="A51" s="146"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="146"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="144"/>
-      <c r="B52" s="144"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
+      <c r="A52" s="146"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="144"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -26271,14 +26269,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>1238</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>318</v>
       </c>
@@ -26291,10 +26289,10 @@
         <v>266</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="133" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -26303,10 +26301,10 @@
         <v>321</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21" t="s">
         <v>323</v>
@@ -26833,28 +26831,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>343</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="140" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="142" t="s">
         <v>344</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>345</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1255</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -26870,58 +26868,58 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="127" t="s">
+      <c r="A49" s="129" t="s">
         <v>347</v>
       </c>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="129" t="s">
         <v>348</v>
       </c>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="144"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
+      <c r="A51" s="146"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="146"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="144"/>
-      <c r="B52" s="144"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
+      <c r="A52" s="146"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="144"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -26972,14 +26970,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="113"/>
+      <c r="A1" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="115"/>
       <c r="E1" s="39" t="s">
         <v>2</v>
       </c>
@@ -26992,8 +26990,8 @@
         <v>4</v>
       </c>
       <c r="B2" s="41"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="42"/>
       <c r="F2" s="43"/>
     </row>
@@ -27002,10 +27000,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="45"/>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="118" t="s">
         <v>959</v>
       </c>
-      <c r="D3" s="117"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="42"/>
       <c r="F3" s="43" t="s">
         <v>960</v>
@@ -27544,26 +27542,26 @@
       <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="118" t="s">
+      <c r="A44" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="118"/>
-      <c r="C44" s="119" t="s">
+      <c r="B44" s="120"/>
+      <c r="C44" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="121"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="123"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="118"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="125"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="127"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="66"/>
@@ -27579,90 +27577,90 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="122" t="s">
+      <c r="A48" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="122"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="122" t="s">
+      <c r="A49" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="122"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="122"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="122" t="s">
+      <c r="A50" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="122"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
+      <c r="A51" s="124"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="122"/>
-      <c r="B52" s="122"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
+      <c r="A52" s="124"/>
+      <c r="B52" s="124"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="122"/>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
+      <c r="A53" s="124"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="122"/>
-      <c r="B54" s="122"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
+      <c r="A54" s="124"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="122"/>
-      <c r="B55" s="122"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
+      <c r="A55" s="124"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="122"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
+      <c r="A56" s="124"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="122"/>
-      <c r="B57" s="122"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
+      <c r="A57" s="124"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -27717,14 +27715,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="70" t="s">
         <v>234</v>
       </c>
@@ -27737,10 +27735,10 @@
         <v>236</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="71"/>
       <c r="F2" s="21" t="s">
         <v>237</v>
@@ -27751,10 +27749,10 @@
         <v>238</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="71">
         <v>4</v>
       </c>
@@ -28281,28 +28279,28 @@
       <c r="F43" s="31"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>253</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="133" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="135" t="s">
         <v>254</v>
       </c>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
+      <c r="D44" s="143"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="143"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="133" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="135" t="s">
         <v>1256</v>
       </c>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -28318,64 +28316,64 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="129" t="s">
         <v>255</v>
       </c>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="127" t="s">
+      <c r="A49" s="129" t="s">
         <v>256</v>
       </c>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="129" t="s">
         <v>257</v>
       </c>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="127" t="s">
+      <c r="A51" s="129" t="s">
         <v>258</v>
       </c>
-      <c r="B51" s="127"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="127" t="s">
+      <c r="A52" s="129" t="s">
         <v>259</v>
       </c>
-      <c r="B52" s="127"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="127" t="s">
+      <c r="A53" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="B53" s="127"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="17" t="s">
@@ -28433,14 +28431,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>76</v>
       </c>
@@ -28453,10 +28451,10 @@
         <v>78</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -28465,10 +28463,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21" t="s">
         <v>134</v>
@@ -28979,28 +28977,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="140" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1257</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -29016,58 +29014,58 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="127" t="s">
+      <c r="A49" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="144"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
+      <c r="A51" s="146"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="146"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="144"/>
-      <c r="B52" s="144"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
+      <c r="A52" s="146"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="144"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -29117,14 +29115,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>987</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>988</v>
       </c>
@@ -29137,10 +29135,10 @@
         <v>236</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="133" t="s">
         <v>989</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -29149,10 +29147,10 @@
         <v>238</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>726</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21" t="s">
         <v>990</v>
@@ -29700,28 +29698,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>1024</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="140" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="142" t="s">
         <v>1025</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>1026</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1027</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -29737,60 +29735,60 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="148" t="s">
+      <c r="A48" s="150" t="s">
         <v>1029</v>
       </c>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="148" t="s">
+      <c r="A49" s="150" t="s">
         <v>1030</v>
       </c>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="129" t="s">
         <v>1031</v>
       </c>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="127" t="s">
+      <c r="A51" s="129" t="s">
         <v>1032</v>
       </c>
-      <c r="B51" s="127"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="144"/>
-      <c r="B52" s="144"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
+      <c r="A52" s="146"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="146"/>
+      <c r="F52" s="146"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="144"/>
-      <c r="B53" s="144"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="146"/>
+      <c r="D53" s="146"/>
+      <c r="E53" s="146"/>
+      <c r="F53" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -29839,14 +29837,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>76</v>
       </c>
@@ -29859,8 +29857,8 @@
         <v>236</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -29869,10 +29867,10 @@
         <v>238</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>726</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
     </row>
@@ -30363,26 +30361,26 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>1074</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="135" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="137" t="s">
         <v>1075</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>1076</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -30398,92 +30396,92 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="128" t="s">
         <v>1078</v>
       </c>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="126" t="s">
+      <c r="A49" s="128" t="s">
         <v>1079</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="126" t="s">
+      <c r="A50" s="128" t="s">
         <v>1080</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="126" t="s">
+      <c r="A51" s="128" t="s">
         <v>1081</v>
       </c>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="A52" s="128"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="126"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="126"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="A54" s="128"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="126"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="A55" s="128"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="126"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="126"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -30536,14 +30534,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>987</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>988</v>
       </c>
@@ -30556,8 +30554,8 @@
         <v>236</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -30566,10 +30564,10 @@
         <v>238</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>726</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
     </row>
@@ -31076,26 +31074,26 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>1096</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>1026</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="138" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="140" t="s">
         <v>1097</v>
       </c>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -31111,90 +31109,90 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="128" t="s">
         <v>1099</v>
       </c>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="126" t="s">
+      <c r="A49" s="128" t="s">
         <v>1100</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="126" t="s">
+      <c r="A50" s="128" t="s">
         <v>1101</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="126"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="A51" s="128"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="A52" s="128"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="126"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="126"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="A54" s="128"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="126"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="A55" s="128"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="126"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="126"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -31247,14 +31245,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>76</v>
       </c>
@@ -31267,8 +31265,8 @@
         <v>236</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -31277,10 +31275,10 @@
         <v>238</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>726</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20">
         <v>5</v>
       </c>
@@ -31821,28 +31819,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="135" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="137" t="s">
         <v>1050</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1051</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="137"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -31858,94 +31856,94 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="128" t="s">
         <v>1052</v>
       </c>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="126" t="s">
+      <c r="A49" s="128" t="s">
         <v>1053</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="126" t="s">
+      <c r="A50" s="128" t="s">
         <v>1054</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="126" t="s">
+      <c r="A51" s="128" t="s">
         <v>1055</v>
       </c>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126" t="s">
+      <c r="A52" s="128" t="s">
         <v>1056</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="126"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="126"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="A54" s="128"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="126"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="A55" s="128"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="126"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="126"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -31998,14 +31996,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>76</v>
       </c>
@@ -32018,10 +32016,10 @@
         <v>78</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -32030,10 +32028,10 @@
         <v>80</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21" t="s">
         <v>82</v>
@@ -32563,28 +32561,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="135" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="128" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -32600,90 +32598,90 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="126" t="s">
+      <c r="A49" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="126" t="s">
+      <c r="A50" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="126"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="A51" s="128"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126"/>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="A52" s="128"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="126"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="126"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="A54" s="128"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="126"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="A55" s="128"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="126"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="126"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -32737,14 +32735,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>76</v>
       </c>
@@ -32757,10 +32755,10 @@
         <v>236</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="133" t="s">
         <v>1113</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21" t="s">
         <v>1114</v>
@@ -32771,10 +32769,10 @@
         <v>238</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>726</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20" t="s">
         <v>1115</v>
       </c>
@@ -33337,28 +33335,28 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="133" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="135" t="s">
         <v>1182</v>
       </c>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
+      <c r="D44" s="143"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="143"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="133" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="135" t="s">
         <v>1132</v>
       </c>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -33374,14 +33372,14 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="130" t="s">
+      <c r="A49" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130" t="s">
+      <c r="B49" s="132"/>
+      <c r="C49" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="130"/>
+      <c r="D49" s="132"/>
       <c r="E49" s="37" t="s">
         <v>76</v>
       </c>
@@ -33785,24 +33783,24 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="142" t="s">
+      <c r="A82" s="144" t="s">
         <v>1133</v>
       </c>
-      <c r="B82" s="142"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="142"/>
+      <c r="B82" s="144"/>
+      <c r="C82" s="144"/>
+      <c r="D82" s="144"/>
+      <c r="E82" s="144"/>
+      <c r="F82" s="144"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="142" t="s">
+      <c r="A83" s="144" t="s">
         <v>1134</v>
       </c>
-      <c r="B83" s="142"/>
-      <c r="C83" s="142"/>
-      <c r="D83" s="142"/>
-      <c r="E83" s="142"/>
-      <c r="F83" s="142"/>
+      <c r="B83" s="144"/>
+      <c r="C83" s="144"/>
+      <c r="D83" s="144"/>
+      <c r="E83" s="144"/>
+      <c r="F83" s="144"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="17" t="s">
@@ -33855,14 +33853,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132" t="s">
         <v>987</v>
       </c>
-      <c r="D1" s="130"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="37" t="s">
         <v>988</v>
       </c>
@@ -33875,8 +33873,8 @@
         <v>236</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
     </row>
@@ -33885,10 +33883,10 @@
         <v>238</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="135" t="s">
         <v>726</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
     </row>
@@ -34389,26 +34387,26 @@
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="129" t="s">
         <v>1096</v>
       </c>
-      <c r="B44" s="127"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="137"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="137"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="129" t="s">
         <v>1026</v>
       </c>
-      <c r="B45" s="127"/>
-      <c r="C45" s="140" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="142" t="s">
         <v>1239</v>
       </c>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="25"/>
@@ -34424,94 +34422,94 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="128" t="s">
         <v>1108</v>
       </c>
-      <c r="B48" s="126"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="126" t="s">
+      <c r="A49" s="128" t="s">
         <v>1109</v>
       </c>
-      <c r="B49" s="126"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="126" t="s">
+      <c r="A50" s="128" t="s">
         <v>1110</v>
       </c>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="126" t="s">
+      <c r="A51" s="128" t="s">
         <v>1111</v>
       </c>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="126" t="s">
+      <c r="A52" s="128" t="s">
         <v>1112</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="126"/>
-      <c r="B53" s="126"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="126"/>
-      <c r="B54" s="126"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
+      <c r="A54" s="128"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="126"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
+      <c r="A55" s="128"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="126"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
+      <c r="A56" s="128"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="126"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="18">
